--- a/准备文件/硬件清单.xlsx
+++ b/准备文件/硬件清单.xlsx
@@ -119,10 +119,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>480P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://item.taobao.com/item.htm?spm=a1z0d.6639537/tb.1997196601.22.5ba574840J4Wf0&amp;id=633931640914</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -140,15 +136,19 @@
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?spm=a1z0d.6639537/tb.1997196601.150.5ba574840J4Wf0&amp;id=570720912521</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>全套气泵、无控制板，要备注送小吸嘴</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">链接仅是推荐，均可选其他店铺的同类产品
 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>720P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全套气泵、无控制板（要备注送6mm的小吸嘴，3个舵机都换成270度的）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -812,7 +812,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -852,10 +852,10 @@
         <v>528</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -884,10 +884,10 @@
         <v>15</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -901,10 +901,10 @@
         <v>2.9</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -915,13 +915,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="3">
-        <v>25.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1010,10 +1010,10 @@
       </c>
       <c r="C12" s="12">
         <f>SUM(C2:C11)</f>
-        <v>721.39999999999986</v>
+        <v>731.39999999999986</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E12" s="17"/>
     </row>

--- a/准备文件/硬件清单.xlsx
+++ b/准备文件/硬件清单.xlsx
@@ -144,11 +144,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>720P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>全套气泵、无控制板（要备注送6mm的小吸嘴，3个舵机都换成270度的）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>480P</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -812,7 +812,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -855,7 +855,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -915,13 +915,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="3">
-        <v>35.799999999999997</v>
+        <v>25.8</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C12" s="12">
         <f>SUM(C2:C11)</f>
-        <v>731.39999999999986</v>
+        <v>721.39999999999986</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>30</v>
